--- a/trunk/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/ConditionFormatting.xlsx
+++ b/trunk/rill-analysis/rill-analysis-report-core/src/test/resources/nu/com/rill/analysis/report/excel/ConditionFormatting.xlsx
@@ -83,7 +83,50 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5FDF87"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -429,6 +472,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
@@ -448,6 +494,14 @@
       </c>
       <c r="F5" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="D8">
+        <v>1234</v>
+      </c>
+      <c r="E8">
+        <v>-1234</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -461,21 +515,48 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
